--- a/data/costassumption0917.xlsx
+++ b/data/costassumption0917.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="costassumption" sheetId="1" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="WetlandScenarios" sheetId="2" r:id="rId2"/>
+    <sheet name="GrassedWaterway" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
   <si>
     <t>Categories</t>
   </si>
@@ -434,6 +435,24 @@
   </si>
   <si>
     <t>Cost/acre</t>
+  </si>
+  <si>
+    <t>Grassed Waterway lifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real discount rate </t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance ($/year) </t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2928,4 +2947,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/costassumption0917.xlsx
+++ b/data/costassumption0917.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="costassumption" sheetId="1" r:id="rId1"/>
     <sheet name="WetlandScenarios" sheetId="2" r:id="rId2"/>
     <sheet name="GrassedWaterway" sheetId="3" r:id="rId3"/>
+    <sheet name="Buffer" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
   <si>
     <t>Categories</t>
   </si>
@@ -453,6 +454,27 @@
   </si>
   <si>
     <t xml:space="preserve">Maintenance ($/year) </t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Initial:Buffer_herbaceous($/acre)</t>
+  </si>
+  <si>
+    <t>Annualized ($/acre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scenario Total Cost</t>
+  </si>
+  <si>
+    <t>Initial Cost($/acre)</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1009,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -995,6 +1017,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1353,7 +1377,7 @@
   <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36:N37"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,56 +2975,220 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
         <v>131</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
         <v>126</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
         <v>127</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>4326.9799999999996</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4/400</f>
+        <v>10.817449999999999</v>
+      </c>
+      <c r="D4">
+        <f>C4+$K$1*$K$2</f>
+        <v>210.81745000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <f>PV(0.019, 10, -D4,0)</f>
+        <v>1903.6319980981607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>6176.98</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:C6" si="0">B5/400</f>
+        <v>15.442449999999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">C5+$K$1*$K$2</f>
+        <v>215.44245000000001</v>
+      </c>
+      <c r="E5" s="7">
+        <f>PV(0.019, 10, -D5,0)</f>
+        <v>1945.3946604925875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
+      </c>
+      <c r="B6" s="8">
+        <v>6818.58</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>17.04645</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>217.04644999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <f>PV(0.019, 10, -D6,0)</f>
+        <v>1959.8784032992169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2">
+        <v>635.42999999999995</v>
+      </c>
+      <c r="C2">
+        <f>B2+$I$1*$I$2</f>
+        <v>835.43</v>
+      </c>
+      <c r="D2" s="7">
+        <f>PV(I3,10,-C2,0)</f>
+        <v>7543.7364419840314</v>
+      </c>
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>474.86</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C4" si="0">B3+$I$1*$I$2</f>
+        <v>674.86</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D4" si="1">PV(I4,10,-C3,0)</f>
+        <v>6748.6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4">
+        <v>164.26</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>364.26</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="1"/>
+        <v>3642.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/costassumption0917.xlsx
+++ b/data/costassumption0917.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="costassumption" sheetId="1" r:id="rId1"/>
     <sheet name="WetlandScenarios" sheetId="2" r:id="rId2"/>
-    <sheet name="GrassedWaterway" sheetId="3" r:id="rId3"/>
-    <sheet name="Buffer" sheetId="4" r:id="rId4"/>
+    <sheet name="GW_Buffer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -471,10 +470,10 @@
     <t>Annualized ($/acre)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Scenario Total Cost</t>
-  </si>
-  <si>
     <t>Initial Cost($/acre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GW_Scenario Total Cost</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
+    <sheetView topLeftCell="F10" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -2668,7 +2667,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,34 +2974,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="24.5703125" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>136</v>
       </c>
       <c r="J1" t="s">
@@ -3013,6 +3012,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
       <c r="J2" t="s">
         <v>126</v>
       </c>
@@ -3021,6 +3021,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
       <c r="J3" t="s">
         <v>127</v>
       </c>
@@ -3043,9 +3044,9 @@
         <f>C4+$K$1*$K$2</f>
         <v>210.81745000000001</v>
       </c>
-      <c r="E4" s="7">
-        <f>PV(0.019, 10, -D4,0)</f>
-        <v>1903.6319980981607</v>
+      <c r="E4" s="3">
+        <f>PV(0.019, 10,0, -D4)</f>
+        <v>174.64844203613495</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3063,9 +3064,9 @@
         <f t="shared" ref="D5:D6" si="1">C5+$K$1*$K$2</f>
         <v>215.44245000000001</v>
       </c>
-      <c r="E5" s="7">
-        <f>PV(0.019, 10, -D5,0)</f>
-        <v>1945.3946604925875</v>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E6" si="2">PV(0.019, 10,0, -D5)</f>
+        <v>178.47995145064084</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3083,113 +3084,94 @@
         <f t="shared" si="1"/>
         <v>217.04644999999999</v>
       </c>
-      <c r="E6" s="7">
-        <f>PV(0.019, 10, -D6,0)</f>
-        <v>1959.8784032992169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
+        <v>179.80876033731488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>133</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B12" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C12" t="s">
         <v>134</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D12" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J12" t="s">
         <v>131</v>
       </c>
-      <c r="I1">
+      <c r="K12">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>128</v>
       </c>
-      <c r="B2">
+      <c r="B13">
         <v>635.42999999999995</v>
       </c>
-      <c r="C2">
-        <f>B2+$I$1*$I$2</f>
+      <c r="C13">
+        <f>B13+$K$12*$K$13</f>
         <v>835.43</v>
       </c>
-      <c r="D2" s="7">
-        <f>PV(I3,10,-C2,0)</f>
-        <v>7543.7364419840314</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D13" s="5">
+        <f>PV(0.019,10,0,-C13)</f>
+        <v>692.09900760230335</v>
+      </c>
+      <c r="J13" t="s">
         <v>126</v>
       </c>
-      <c r="I2">
+      <c r="K13">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>129</v>
       </c>
-      <c r="B3">
+      <c r="B14">
         <v>474.86</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C4" si="0">B3+$I$1*$I$2</f>
+      <c r="C14">
+        <f t="shared" ref="C14:C15" si="3">B14+$K$12*$K$13</f>
         <v>674.86</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D4" si="1">PV(I4,10,-C3,0)</f>
-        <v>6748.6</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:D15" si="4">PV(0.019,10,0,-C14)</f>
+        <v>559.07728507533898</v>
+      </c>
+      <c r="J14" t="s">
         <v>127</v>
       </c>
-      <c r="I3">
+      <c r="K14">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>130</v>
       </c>
-      <c r="B4">
+      <c r="B15">
         <v>164.26</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="C15">
+        <f t="shared" si="3"/>
         <v>364.26</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" si="1"/>
-        <v>3642.6</v>
-      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="4"/>
+        <v>301.76553931414367</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
